--- a/Document.xlsx
+++ b/Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trandat/Documents/DO_AN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173B6F28-A37F-014B-8F82-55AE568C6D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BC1A70-A8DD-A645-BF8A-BE48A018F4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{39D512AF-8418-E943-9D83-13802C134B5A}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Fee: Lưu thông tin học phí (id, student_id, amount, due_date, status, note)</t>
   </si>
   <si>
-    <t>Material: Lưu tài liệu học tập (id, title, file_path, description, classroom_id, course_id)</t>
-  </si>
-  <si>
     <t>Course: Lưu khóa học (id, name, duration, price, description)</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Material_Classroon: Bảng trung gian mô tả tài liệu dùng cho lớp nào (id, material_id, classroom_id)</t>
+  </si>
+  <si>
+    <t>Material: Lưu tài liệu học tập (id, title, file_path, description, course_id)</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1697,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1713,7 +1713,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1729,7 +1729,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1745,7 +1745,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1761,7 +1761,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1777,7 +1777,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1793,7 +1793,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1809,7 +1809,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
